--- a/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,6 +441,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -471,7 +476,8 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
@@ -500,6 +506,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G H S KalmangiSindhnur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -527,6 +538,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S GabburDevadurga</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -554,6 +570,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S BalaganurSindhanur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -578,6 +599,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>G H S TalekhanMaski</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -602,6 +628,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G U H S Police Colony</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -629,6 +660,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G H S Siyatalab</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -656,6 +692,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. P U College(H S) GuruguntaLingasugur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -677,6 +718,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S TurvihalSindhanur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -698,6 +744,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Govt. Adarsha VidyalayaDeodurga</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -722,6 +773,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>G U H S Arab Mohalla</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -746,6 +802,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>G U H S Idapnur</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -773,6 +834,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S Jagir Venkatapur</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -800,6 +866,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H S KasabalingasugurLingasugur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -827,6 +898,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>G H S Bijanageera</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -854,6 +930,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section) Sirwar</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -881,6 +962,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H S NagarahalLingasagur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -908,6 +994,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>G H S NagadadinniDeodurga</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -935,6 +1026,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S Turkundona</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -962,6 +1058,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>G H S TimmapurSindhanur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -986,6 +1087,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>U G H P S SannahosuruManvi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1013,6 +1119,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>U G H P S Sagamkunta</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1040,6 +1151,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H S Yapaladinni</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1067,6 +1183,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>U G H P S KaradiguddaManvi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1094,6 +1215,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Nilogal CrossLingasugur</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1116,7 +1242,8 @@
           <t>RUBINA ARSHI</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>G G U H S Fort Raichur</t>
         </is>
@@ -1145,6 +1272,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S (B)JalahalliDevadurga</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1172,6 +1304,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S Gillesugur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1199,6 +1336,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S KachapurLingsugur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1226,6 +1368,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>G H S ChitapurLingasugur</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1250,6 +1397,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>G H S GonawarSindhanur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1277,6 +1429,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S YaradonLingasgur</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1304,6 +1461,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya Sindhanoor</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1331,6 +1493,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S RajolliManvi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1355,6 +1522,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>G H S SomanamaradiDevadurga</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1382,6 +1554,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>U G H R S MuddamuguddiManvi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1409,6 +1586,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>U G H P S Urdu Manvi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Raichur</t>
         </is>
       </c>
@@ -1432,6 +1614,11 @@
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>G H S AmbhamathSindhanur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Raichur</t>
         </is>

--- a/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,6 @@
           <t>Names</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>Name</t>
@@ -1242,7 +1241,6 @@
           <t>RUBINA ARSHI</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>G G U H S Fort Raichur</t>

--- a/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
+++ b/mathTransformed/HMPSTT_(2018-08-23)_37_4.xlsx
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>G G U H S Fort Raichur</t>
+          <t>Raichur</t>
         </is>
       </c>
     </row>
